--- a/Os.Brain.Doc/Os.Brain.Files/CodeSmith/水电费.xlsx
+++ b/Os.Brain.Doc/Os.Brain.Files/CodeSmith/水电费.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2015年" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,23 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+小朋友已支付
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D2" authorId="0">
       <text>
         <r>
@@ -89,12 +106,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+小朋友已支付</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>2015.09.06</t>
   </si>
@@ -198,7 +241,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2015.03.17</t>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.03.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +320,13 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -650,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -1014,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1068,9 +1134,15 @@
       <c r="B3" s="3">
         <v>201504</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="3">
+        <v>172</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -1130,7 +1202,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1140,9 +1212,15 @@
       <c r="B9" s="4">
         <v>201504</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="4">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -1197,9 +1275,15 @@
       <c r="B14" s="5">
         <v>201502</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="5">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="5" t="s">
